--- a/old.xlsx
+++ b/old.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/pythonProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/meshavsek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1F778-EDEE-8F4C-8682-44DD0EA933C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E6654B-00D7-DF45-93D6-1CF331AFE103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>סיני
 רווה</t>
@@ -98,31 +98,118 @@
 אסף</t>
   </si>
   <si>
-    <t>East</t>
+    <t>אלכסי
+דורון</t>
+  </si>
+  <si>
+    <t>אנדי
+שגיא</t>
+  </si>
+  <si>
+    <t>יואל
+רוני</t>
+  </si>
+  <si>
+    <t>לואיס
+לוטם</t>
+  </si>
+  <si>
+    <t>עמרי
+אבנר</t>
+  </si>
+  <si>
+    <t>כהן
+יונג</t>
+  </si>
+  <si>
+    <t>אגומס
+סיני</t>
+  </si>
+  <si>
+    <t>דבוש
+פיאצה</t>
+  </si>
+  <si>
+    <t>שראל
+נתנאל</t>
+  </si>
+  <si>
+    <t>יואל 
+רוני</t>
+  </si>
+  <si>
+    <t>דימה
+שבצוב</t>
+  </si>
+  <si>
+    <t>ליאור
+דעאל</t>
+  </si>
+  <si>
+    <t>ארד
+עמיחי</t>
+  </si>
+  <si>
+    <t>רווה
+קריספין</t>
+  </si>
+  <si>
+    <t>משה
+אסף</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטמוני
+דימנטמן </t>
+  </si>
+  <si>
+    <t>שמעון
+אנדי</t>
+  </si>
+  <si>
+    <t>יונג
+לואיס</t>
+  </si>
+  <si>
+    <t>לוטם
+כהן</t>
+  </si>
+  <si>
+    <t>דורון
+אלכסי</t>
+  </si>
+  <si>
+    <t>עמיחי
+דעאל</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
   <si>
     <t>Entrance</t>
   </si>
   <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Day</t>
+    <t>Penthouse</t>
   </si>
   <si>
     <t>Rear</t>
   </si>
   <si>
-    <t>Penthouse</t>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Patrol</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>Patrol</t>
+    <t>Sunday</t>
   </si>
   <si>
-    <t>Sunday</t>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
@@ -172,10 +259,8 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -330,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,31 +438,70 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,34 +509,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,8 +732,11 @@
   </sheetPr>
   <dimension ref="A1:Y982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -643,33 +744,33 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
@@ -690,26 +791,26 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>25</v>
+    <row r="2" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="4"/>
@@ -732,12 +833,12 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="6">
         <v>1.125</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="18"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -761,12 +862,12 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="5">
         <v>1.1666666666666667</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="12"/>
@@ -789,21 +890,21 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="13"/>
@@ -827,15 +928,15 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5">
         <v>1.25</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -856,12 +957,12 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6">
         <v>1.2916666666666667</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -884,21 +985,21 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="12"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -920,14 +1021,14 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6">
         <v>1.375</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="12"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -949,14 +1050,14 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="5">
         <v>1.4166666666666667</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="12"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -977,21 +1078,21 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="6">
         <v>1.4583333333333333</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="12"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1013,14 +1114,14 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="5">
         <v>1.5</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="12"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1042,14 +1143,14 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="6">
         <v>1.5416666666666667</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="24"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="12"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1070,21 +1171,21 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="B14" s="5">
         <v>1.5833333333333333</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="12"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1106,14 +1207,14 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="6">
         <v>1.625</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="12"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1135,14 +1236,14 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="5">
         <v>1.6666666666666667</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="12"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1163,21 +1264,21 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
       <c r="B17" s="6">
         <v>1.7083333333333333</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="12"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1199,14 +1300,14 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5">
         <v>1.75</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="12"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1228,14 +1329,14 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="6">
         <v>1.7916666666666667</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="13"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1256,16 +1357,24 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="B20" s="5">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="28"/>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="18"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1286,12 +1395,12 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="6">
         <v>1.875</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
@@ -1315,15 +1424,17 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="5">
         <v>1.9166666666666667</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1343,15 +1454,23 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="B23" s="6">
         <v>1.9583333333333333</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="12"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1373,14 +1492,14 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>27</v>
+      <c r="A24" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -1404,12 +1523,12 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="6">
         <v>1.0416666666666667</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -1432,16 +1551,26 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+    <row r="26" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="C26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1462,12 +1591,12 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="6">
         <v>1.125</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -1491,12 +1620,12 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="5">
         <v>1.1666666666666667</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="12"/>
@@ -1519,15 +1648,23 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+    <row r="29" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
       <c r="B29" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="13"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1549,15 +1686,15 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="5">
         <v>1.25</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1578,12 +1715,12 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="6">
         <v>1.2916666666666667</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -1606,14 +1743,20 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+    <row r="32" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="B32" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
       <c r="H32" s="4"/>
@@ -1636,14 +1779,14 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="6">
         <v>1.375</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="24"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="12"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1665,14 +1808,14 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="5">
         <v>1.4166666666666667</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="24"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="12"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1693,15 +1836,21 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+    <row r="35" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
       <c r="B35" s="6">
         <v>1.4583333333333333</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="24"/>
+      <c r="C35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="20"/>
       <c r="G35" s="12"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1723,14 +1872,14 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="5">
         <v>1.5</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="24"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="12"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -1752,14 +1901,14 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="6">
         <v>1.5416666666666667</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="24"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="12"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1780,15 +1929,21 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
+    <row r="38" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
       <c r="B38" s="5">
         <v>1.5833333333333333</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="24"/>
+      <c r="C38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="20"/>
       <c r="G38" s="12"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1810,14 +1965,14 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="6">
         <v>1.625</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="24"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="12"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1839,14 +1994,14 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="5">
         <v>1.6666666666666667</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="24"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="12"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -1867,15 +2022,21 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
+    <row r="41" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
       <c r="B41" s="6">
         <v>1.7083333333333333</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="24"/>
+      <c r="C41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="20"/>
       <c r="G41" s="12"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -1897,14 +2058,14 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="5">
         <v>1.75</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="24"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="12"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -1926,14 +2087,14 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="6">
         <v>1.7916666666666667</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="25"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="13"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -1955,15 +2116,15 @@
       <c r="Y43" s="4"/>
     </row>
     <row r="44" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="5">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="26"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -1984,12 +2145,12 @@
       <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="6">
         <v>1.875</v>
       </c>
       <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
@@ -2013,15 +2174,15 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="5">
         <v>1.9166666666666667</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2042,14 +2203,14 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="6">
         <v>1.9583333333333333</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="12"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -2071,12 +2232,14 @@
       <c r="Y47" s="4"/>
     </row>
     <row r="48" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
+      <c r="A48" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="B48" s="5">
         <v>1</v>
       </c>
       <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -2100,12 +2263,12 @@
       <c r="Y48" s="4"/>
     </row>
     <row r="49" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="6">
         <v>1.0416666666666667</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -2129,15 +2292,15 @@
       <c r="Y49" s="4"/>
     </row>
     <row r="50" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -2158,12 +2321,12 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="6">
         <v>1.125</v>
       </c>
       <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -2187,12 +2350,12 @@
       <c r="Y51" s="4"/>
     </row>
     <row r="52" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="5">
         <v>1.1666666666666667</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="12"/>
@@ -2216,14 +2379,14 @@
       <c r="Y52" s="4"/>
     </row>
     <row r="53" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="14"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="13"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -2245,15 +2408,15 @@
       <c r="Y53" s="4"/>
     </row>
     <row r="54" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="5">
         <v>1.25</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2274,12 +2437,12 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="6">
         <v>1.2916666666666667</v>
       </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -27333,87 +27496,86 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F32:G43"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="F47:F49"/>
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F8:G19"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="C44:C46"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:E31"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:E49"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C50:C52"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:G19"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:G43"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="E50:E52"/>
     <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D41:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/old.xlsx
+++ b/old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/meshavsek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E6654B-00D7-DF45-93D6-1CF331AFE103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BF61C2-A49C-574B-B1FB-293F5B994C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,6 @@
 אבנר</t>
   </si>
   <si>
-    <t>יונג
-כהן</t>
-  </si>
-  <si>
     <t>אגומס
 דותן</t>
   </si>
@@ -98,10 +94,6 @@
 אסף</t>
   </si>
   <si>
-    <t>אלכסי
-דורון</t>
-  </si>
-  <si>
     <t>אנדי
 שגיא</t>
   </si>
@@ -114,14 +106,6 @@
 לוטם</t>
   </si>
   <si>
-    <t>עמרי
-אבנר</t>
-  </si>
-  <si>
-    <t>כהן
-יונג</t>
-  </si>
-  <si>
     <t>אגומס
 סיני</t>
   </si>
@@ -130,16 +114,8 @@
 פיאצה</t>
   </si>
   <si>
-    <t>שראל
-נתנאל</t>
-  </si>
-  <si>
     <t>יואל 
 רוני</t>
-  </si>
-  <si>
-    <t>דימה
-שבצוב</t>
   </si>
   <si>
     <t>ליאור
@@ -168,14 +144,6 @@
   <si>
     <t>יונג
 לואיס</t>
-  </si>
-  <si>
-    <t>לוטם
-כהן</t>
-  </si>
-  <si>
-    <t>דורון
-אלכסי</t>
   </si>
   <si>
     <t>עמיחי
@@ -210,6 +178,38 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>לוטם
+איתי כהן</t>
+  </si>
+  <si>
+    <t>אלכסיי
+דורון</t>
+  </si>
+  <si>
+    <t>דמיטרי
+שבצוב</t>
+  </si>
+  <si>
+    <t>דורון
+אלכסיי</t>
+  </si>
+  <si>
+    <t>איתי כהן
+יונג</t>
+  </si>
+  <si>
+    <t>יונג
+איתי כהן</t>
+  </si>
+  <si>
+    <t>דותן
+אבנר</t>
+  </si>
+  <si>
+    <t>שראל
+שרעבי</t>
   </si>
 </sst>
 </file>
@@ -447,6 +447,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -454,33 +463,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,14 +473,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,6 +492,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,10 +733,10 @@
   <dimension ref="A1:Y982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -752,25 +752,25 @@
   <sheetData>
     <row r="1" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
@@ -792,25 +792,25 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>47</v>
+      <c r="A2" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="4"/>
@@ -837,11 +837,11 @@
       <c r="B3" s="6">
         <v>1.125</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -866,11 +866,11 @@
       <c r="B4" s="5">
         <v>1.1666666666666667</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -895,19 +895,19 @@
       <c r="B5" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -932,11 +932,11 @@
       <c r="B6" s="5">
         <v>1.25</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -961,11 +961,11 @@
       <c r="B7" s="6">
         <v>1.2916666666666667</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -990,17 +990,17 @@
       <c r="B8" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1025,11 +1025,11 @@
       <c r="B9" s="6">
         <v>1.375</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1054,11 +1054,11 @@
       <c r="B10" s="5">
         <v>1.4166666666666667</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1083,17 +1083,17 @@
       <c r="B11" s="6">
         <v>1.4583333333333333</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1118,11 +1118,11 @@
       <c r="B12" s="5">
         <v>1.5</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1147,11 +1147,11 @@
       <c r="B13" s="6">
         <v>1.5416666666666667</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1176,17 +1176,17 @@
       <c r="B14" s="5">
         <v>1.5833333333333333</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>15</v>
+      <c r="D14" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1211,11 +1211,11 @@
       <c r="B15" s="6">
         <v>1.625</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1240,11 +1240,11 @@
       <c r="B16" s="5">
         <v>1.6666666666666667</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="12"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1269,17 +1269,17 @@
       <c r="B17" s="6">
         <v>1.7083333333333333</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1304,11 +1304,11 @@
       <c r="B18" s="5">
         <v>1.75</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1333,11 +1333,11 @@
       <c r="B19" s="6">
         <v>1.7916666666666667</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1362,19 +1362,19 @@
       <c r="B20" s="5">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>19</v>
+      <c r="C20" s="17" t="s">
+        <v>43</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>20</v>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1399,11 +1399,11 @@
       <c r="B21" s="6">
         <v>1.875</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1428,12 +1428,12 @@
       <c r="B22" s="5">
         <v>1.9166666666666667</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="11" t="s">
-        <v>21</v>
+      <c r="C22" s="16"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1459,19 +1459,19 @@
       <c r="B23" s="6">
         <v>1.9583333333333333</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>22</v>
+      <c r="C23" s="14" t="s">
+        <v>20</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>24</v>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>23</v>
+      <c r="E23" s="14" t="s">
+        <v>48</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>25</v>
+      <c r="F23" s="14" t="s">
+        <v>21</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="24" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1527,11 +1527,11 @@
       <c r="B25" s="6">
         <v>1.0416666666666667</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1556,20 +1556,20 @@
       <c r="B26" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>26</v>
+      <c r="C26" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>28</v>
+      <c r="D26" s="18" t="s">
+        <v>23</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>27</v>
+      <c r="E26" s="17" t="s">
+        <v>49</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>29</v>
+      <c r="F26" s="17" t="s">
+        <v>44</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>30</v>
+      <c r="G26" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1595,11 +1595,11 @@
       <c r="B27" s="6">
         <v>1.125</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1624,11 +1624,11 @@
       <c r="B28" s="5">
         <v>1.1666666666666667</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1653,19 +1653,19 @@
       <c r="B29" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>32</v>
+      <c r="D29" s="18" t="s">
+        <v>26</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>31</v>
+      <c r="E29" s="17" t="s">
+        <v>25</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>33</v>
+      <c r="F29" s="17" t="s">
+        <v>27</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1690,11 +1690,11 @@
       <c r="B30" s="5">
         <v>1.25</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="17"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1719,11 +1719,11 @@
       <c r="B31" s="6">
         <v>1.2916666666666667</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1748,17 +1748,17 @@
       <c r="B32" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>15</v>
+      <c r="C32" s="23" t="s">
+        <v>14</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>35</v>
+      <c r="D32" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>34</v>
+      <c r="E32" s="23" t="s">
+        <v>28</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1783,11 +1783,11 @@
       <c r="B33" s="6">
         <v>1.375</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1812,11 +1812,11 @@
       <c r="B34" s="5">
         <v>1.4166666666666667</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="12"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1841,17 +1841,17 @@
       <c r="B35" s="6">
         <v>1.4583333333333333</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>36</v>
+      <c r="C35" s="17" t="s">
+        <v>30</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>38</v>
+      <c r="D35" s="18" t="s">
+        <v>45</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>37</v>
+      <c r="E35" s="17" t="s">
+        <v>42</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="12"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1876,11 +1876,11 @@
       <c r="B36" s="5">
         <v>1.5</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1905,11 +1905,11 @@
       <c r="B37" s="6">
         <v>1.5416666666666667</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="12"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1934,17 +1934,17 @@
       <c r="B38" s="5">
         <v>1.5833333333333333</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>27</v>
+      <c r="C38" s="17" t="s">
+        <v>49</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>26</v>
+      <c r="D38" s="18" t="s">
+        <v>22</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>25</v>
+      <c r="E38" s="17" t="s">
+        <v>21</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="12"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1969,11 +1969,11 @@
       <c r="B39" s="6">
         <v>1.625</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -1998,11 +1998,11 @@
       <c r="B40" s="5">
         <v>1.6666666666666667</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="12"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -2027,17 +2027,17 @@
       <c r="B41" s="6">
         <v>1.7083333333333333</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>39</v>
+      <c r="C41" s="17" t="s">
+        <v>31</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>28</v>
+      <c r="D41" s="18" t="s">
+        <v>23</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>29</v>
+      <c r="E41" s="17" t="s">
+        <v>44</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="12"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2062,11 +2062,11 @@
       <c r="B42" s="5">
         <v>1.75</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="12"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2091,11 +2091,11 @@
       <c r="B43" s="6">
         <v>1.7916666666666667</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="13"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2120,11 +2120,11 @@
       <c r="B44" s="5">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="24"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2149,11 +2149,11 @@
       <c r="B45" s="6">
         <v>1.875</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2178,11 +2178,11 @@
       <c r="B46" s="5">
         <v>1.9166666666666667</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="21"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2207,11 +2207,11 @@
       <c r="B47" s="6">
         <v>1.9583333333333333</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="12"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="48" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2267,11 +2267,11 @@
       <c r="B49" s="6">
         <v>1.0416666666666667</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -2296,11 +2296,11 @@
       <c r="B50" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -2325,11 +2325,11 @@
       <c r="B51" s="6">
         <v>1.125</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -2354,11 +2354,11 @@
       <c r="B52" s="5">
         <v>1.1666666666666667</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="12"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -2383,11 +2383,11 @@
       <c r="B53" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="13"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -2412,11 +2412,11 @@
       <c r="B54" s="5">
         <v>1.25</v>
       </c>
-      <c r="C54" s="12"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="17"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2441,11 +2441,11 @@
       <c r="B55" s="6">
         <v>1.2916666666666667</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="35"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -27517,6 +27517,9 @@
     <mergeCell ref="F32:G43"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F8:G19"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D41:D43"/>
@@ -27524,9 +27527,6 @@
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F8:G19"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="C44:C46"/>

--- a/old.xlsx
+++ b/old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/meshavsek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BF61C2-A49C-574B-B1FB-293F5B994C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A34F63-2777-1B4B-9DE0-E04D5E9342BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -438,14 +438,28 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -459,40 +473,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,10 +488,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,10 +733,10 @@
   <dimension ref="A1:Y982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -792,25 +792,25 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="4"/>
@@ -833,15 +833,15 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="6">
         <v>1.125</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -862,15 +862,15 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5">
         <v>1.1666666666666667</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -891,23 +891,23 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -928,15 +928,15 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>1.25</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -957,15 +957,15 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="6">
         <v>1.2916666666666667</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -986,21 +986,21 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1021,15 +1021,15 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="6">
         <v>1.375</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1050,15 +1050,15 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5">
         <v>1.4166666666666667</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1079,21 +1079,21 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="6">
         <v>1.4583333333333333</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1114,15 +1114,15 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>1.5</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1143,15 +1143,15 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="6">
         <v>1.5416666666666667</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1172,21 +1172,21 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="5">
         <v>1.5833333333333333</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1207,15 +1207,15 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="6">
         <v>1.625</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1236,15 +1236,15 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5">
         <v>1.6666666666666667</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1265,21 +1265,21 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="6">
         <v>1.7083333333333333</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1300,15 +1300,15 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5">
         <v>1.75</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1329,15 +1329,15 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="6">
         <v>1.7916666666666667</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1358,23 +1358,23 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1395,15 +1395,15 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="6">
         <v>1.875</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1424,15 +1424,15 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="5">
         <v>1.9166666666666667</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="14" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="4"/>
@@ -1455,23 +1455,23 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="6">
         <v>1.9583333333333333</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1492,17 +1492,17 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1523,15 +1523,15 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="6">
         <v>1.0416666666666667</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1552,23 +1552,23 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="4"/>
@@ -1591,15 +1591,15 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="6">
         <v>1.125</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1620,15 +1620,15 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="5">
         <v>1.1666666666666667</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1649,23 +1649,23 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1686,15 +1686,15 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="5">
         <v>1.25</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1715,15 +1715,15 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="6">
         <v>1.2916666666666667</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1744,21 +1744,21 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1779,15 +1779,15 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="6">
         <v>1.375</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1808,15 +1808,15 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="5">
         <v>1.4166666666666667</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="15"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1837,21 +1837,21 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="6">
         <v>1.4583333333333333</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="15"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1872,15 +1872,15 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="5">
         <v>1.5</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="15"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1901,15 +1901,15 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="6">
         <v>1.5416666666666667</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1930,21 +1930,21 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="5">
         <v>1.5833333333333333</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1965,15 +1965,15 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="6">
         <v>1.625</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="15"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -1994,15 +1994,15 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="5">
         <v>1.6666666666666667</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="15"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -2023,21 +2023,21 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41" spans="1:25" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="6">
         <v>1.7083333333333333</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2058,15 +2058,15 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="5">
         <v>1.75</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="15"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2087,15 +2087,15 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="6">
         <v>1.7916666666666667</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="16"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2116,15 +2116,15 @@
       <c r="Y43" s="4"/>
     </row>
     <row r="44" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="5">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="32"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2145,15 +2145,15 @@
       <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="6">
         <v>1.875</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2174,15 +2174,15 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="5">
         <v>1.9166666666666667</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="21"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2203,15 +2203,15 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="6">
         <v>1.9583333333333333</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="15"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2232,17 +2232,17 @@
       <c r="Y47" s="4"/>
     </row>
     <row r="48" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2263,15 +2263,15 @@
       <c r="Y48" s="4"/>
     </row>
     <row r="49" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="6">
         <v>1.0416666666666667</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -2292,15 +2292,15 @@
       <c r="Y49" s="4"/>
     </row>
     <row r="50" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="5">
         <v>1.0833333333333333</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -2321,15 +2321,15 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="6">
         <v>1.125</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -2350,15 +2350,15 @@
       <c r="Y51" s="4"/>
     </row>
     <row r="52" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="5">
         <v>1.1666666666666667</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="15"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -2379,15 +2379,15 @@
       <c r="Y52" s="4"/>
     </row>
     <row r="53" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="6">
         <v>1.2083333333333333</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="16"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -2408,15 +2408,15 @@
       <c r="Y53" s="4"/>
     </row>
     <row r="54" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="5">
         <v>1.25</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2437,15 +2437,15 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" spans="1:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="6">
         <v>1.2916666666666667</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -27496,6 +27496,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F32:G43"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F8:G19"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="G50:G53"/>
     <mergeCell ref="G54:G55"/>
@@ -27512,69 +27575,6 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="F32:G43"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F8:G19"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="E53:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/old.xlsx
+++ b/old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/meshavsek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE1B52-7520-2243-BE66-BA64B61CD04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999DDB92-718D-054A-837B-6715AFD6A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>יום</t>
   </si>
@@ -193,14 +193,6 @@
     <t>דותן
  ליאור</t>
   </si>
-  <si>
-    <t xml:space="preserve"> נפמן
- סדון</t>
-  </si>
-  <si>
-    <t>דימנטמן
- מטמוני</t>
-  </si>
 </sst>
 </file>
 
@@ -306,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,23 +310,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,8 +543,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -603,22 +589,22 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2"/>
@@ -642,14 +628,14 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3">
         <v>0.125</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -671,14 +657,14 @@
       <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -700,20 +686,20 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -735,16 +721,14 @@
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3">
         <v>0.25</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -766,14 +750,14 @@
       <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -795,20 +779,20 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -830,14 +814,14 @@
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="3">
         <v>0.375</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -859,14 +843,14 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -888,20 +872,20 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -923,14 +907,14 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3">
         <v>0.5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -952,14 +936,14 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -981,20 +965,20 @@
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1016,14 +1000,14 @@
       <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="3">
         <v>0.625</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1045,14 +1029,14 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1074,20 +1058,20 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1109,14 +1093,14 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="3">
         <v>0.75</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1138,14 +1122,14 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1167,20 +1151,20 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1202,14 +1186,14 @@
       <c r="Y20" s="2"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="3">
         <v>0.875</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1231,14 +1215,14 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="2"/>
@@ -1262,20 +1246,20 @@
       <c r="Y22" s="2"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1297,16 +1281,16 @@
       <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1328,14 +1312,14 @@
       <c r="Y24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1357,20 +1341,20 @@
       <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="2"/>
@@ -1394,14 +1378,14 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="3">
         <v>0.125</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1423,14 +1407,14 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1452,20 +1436,20 @@
       <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1487,16 +1471,14 @@
       <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="3">
         <v>0.25</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1518,14 +1500,14 @@
       <c r="Y30" s="2"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1547,20 +1529,20 @@
       <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1582,14 +1564,14 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="3">
         <v>0.375</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1611,14 +1593,14 @@
       <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1640,20 +1622,20 @@
       <c r="Y34" s="2"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1675,14 +1657,14 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="3">
         <v>0.5</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="9"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1704,14 +1686,14 @@
       <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1733,20 +1715,20 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1768,14 +1750,14 @@
       <c r="Y38" s="2"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="3">
         <v>0.625</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="9"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1797,14 +1779,14 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1826,20 +1808,20 @@
       <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1861,14 +1843,14 @@
       <c r="Y41" s="2"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="3">
         <v>0.75</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1890,14 +1872,14 @@
       <c r="Y42" s="2"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -27758,43 +27740,7 @@
       <c r="Y1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="F34:F43"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F21"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="C41:C43"/>
+  <mergeCells count="49">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
@@ -27810,6 +27756,40 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="F6:F21"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F30:F43"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/old.xlsx
+++ b/old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/meshavsek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C34DDC7-D241-544F-A341-124CB5CB76BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37EBC20-6F66-8E45-B487-13EE1707B629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,13 +1241,32 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F43"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="D38:D40"/>
@@ -1264,32 +1283,13 @@
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A43"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
